--- a/biology/Microbiologie/Fuscheriidae/Fuscheriidae.xlsx
+++ b/biology/Microbiologie/Fuscheriidae/Fuscheriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fuscheriidae sont une famille de Ciliés de la classe des Gymnostomatea et de l'ordre des Haptorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Fuscheriides, composé du préfixe fuscheri-, par allusion au genre Fuscheria et du suffixe -ides (du grec εἴδω / eido, « à l'aspect de »).
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gabilondo et Foissner en 2009 résument ainsi les caractéristiques de cette famille : 
-« Les haptorides Fuscheriidae sont caractérisés par des rangées ciliaires s'étendant sous forme de méridien[note 1] clairement séparées de la cinétie[note 2] circumorale dikinétidale[note 3]. Une brosse dorsale à deux ou trois rangs ; et des nématodesmes situés autour de l'orifice buccal (bouche)[note 4],[1]... »
+« Les haptorides Fuscheriidae sont caractérisés par des rangées ciliaires s'étendant sous forme de méridien[note 1] clairement séparées de la cinétie[note 2] circumorale dikinétidale[note 3]. Une brosse dorsale à deux ou trois rangs ; et des nématodesmes situés autour de l'orifice buccal (bouche)[note 4],... »
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces des genres Aciculoplites et Fuscheriides sont des organismes terrestres découverts dans diverses régions du monde, notamment : le sol de prairies du sud du Tibet (à 4 600 m d'altitude), le sol d'une plaine inondable d'un lac d'Éthiopie, la boue et le sol éolien au sommet de l'Ayers Rock (Australie), la boue et le sol d'une mare de prairie à Salzbourg (Autriche)[1].
-De façon plus générale, selon GBIF       (20 décembre 2022)[2], cette famille a une répartition mondiale mais éparse.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces des genres Aciculoplites et Fuscheriides sont des organismes terrestres découverts dans diverses régions du monde, notamment : le sol de prairies du sud du Tibet (à 4 600 m d'altitude), le sol d'une plaine inondable d'un lac d'Éthiopie, la boue et le sol éolien au sommet de l'Ayers Rock (Australie), la boue et le sol d'une mare de prairie à Salzbourg (Autriche).
+De façon plus générale, selon GBIF       (20 décembre 2022), cette famille a une répartition mondiale mais éparse.
 </t>
         </is>
       </c>
@@ -607,14 +625,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (20 décembre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (20 décembre 2022) :
 Aciculoplites Foissner &amp; Gabilondo, 2009
 Apocoriplites Oertel, Wolf, Al-Rasheid &amp; Foissner, 2008
 Dioplitophrya
 Dioplitophyra Foissner, Agatha &amp; Berger, 2002
-Fuscheria Foissner, 1983[3]
+Fuscheria Foissner, 1983
 Fuscheriides Foissner &amp; Gabilondo, 2009 - genre type</t>
         </is>
       </c>
@@ -643,9 +663,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Fuscheriidae Foissner et al., 2002[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Fuscheriidae Foissner et al., 2002.
 </t>
         </is>
       </c>
